--- a/Code/Results/Cases/Case_3_181/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_181/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9995478528823827</v>
+        <v>1.028973255428667</v>
       </c>
       <c r="D2">
-        <v>1.020465145580618</v>
+        <v>1.037059800123672</v>
       </c>
       <c r="E2">
-        <v>1.015441533518977</v>
+        <v>1.038560239073564</v>
       </c>
       <c r="F2">
-        <v>1.024933806564262</v>
+        <v>1.048804984141571</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043174115293842</v>
+        <v>1.032172886504102</v>
       </c>
       <c r="J2">
-        <v>1.021742096007614</v>
+        <v>1.034122606098828</v>
       </c>
       <c r="K2">
-        <v>1.03164654500692</v>
+        <v>1.039851764756822</v>
       </c>
       <c r="L2">
-        <v>1.026689854572866</v>
+        <v>1.041347924427985</v>
       </c>
       <c r="M2">
-        <v>1.036056368027748</v>
+        <v>1.051563806205685</v>
       </c>
       <c r="N2">
-        <v>1.011140904370007</v>
+        <v>1.015373910130145</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.003436179500151</v>
+        <v>1.029812177506045</v>
       </c>
       <c r="D3">
-        <v>1.023265493569657</v>
+        <v>1.037685523650234</v>
       </c>
       <c r="E3">
-        <v>1.01861690693933</v>
+        <v>1.039297506843562</v>
       </c>
       <c r="F3">
-        <v>1.028381853148635</v>
+        <v>1.049605956652344</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043893862043252</v>
+        <v>1.032269299084244</v>
       </c>
       <c r="J3">
-        <v>1.023833607101517</v>
+        <v>1.034602929769353</v>
       </c>
       <c r="K3">
-        <v>1.033609096841011</v>
+        <v>1.04028770566879</v>
       </c>
       <c r="L3">
-        <v>1.029016996048068</v>
+        <v>1.041895422868453</v>
       </c>
       <c r="M3">
-        <v>1.038664018691486</v>
+        <v>1.05217692659084</v>
       </c>
       <c r="N3">
-        <v>1.011847066241465</v>
+        <v>1.015534661474798</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.005907656948615</v>
+        <v>1.030355786119329</v>
       </c>
       <c r="D4">
-        <v>1.025047712678939</v>
+        <v>1.038090882950311</v>
       </c>
       <c r="E4">
-        <v>1.02064109319562</v>
+        <v>1.03977561991438</v>
       </c>
       <c r="F4">
-        <v>1.030579118068523</v>
+        <v>1.050125306162631</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044341024206937</v>
+        <v>1.032330479878947</v>
       </c>
       <c r="J4">
-        <v>1.025161442050023</v>
+        <v>1.034913848438617</v>
       </c>
       <c r="K4">
-        <v>1.03485294810442</v>
+        <v>1.040569571493908</v>
       </c>
       <c r="L4">
-        <v>1.030496621180279</v>
+        <v>1.042250073805092</v>
       </c>
       <c r="M4">
-        <v>1.040321973446569</v>
+        <v>1.05257406652184</v>
       </c>
       <c r="N4">
-        <v>1.012295186948342</v>
+        <v>1.015638671310203</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.006936331562185</v>
+        <v>1.030584501767522</v>
       </c>
       <c r="D5">
-        <v>1.025790002356857</v>
+        <v>1.038261407625476</v>
       </c>
       <c r="E5">
-        <v>1.021484968852685</v>
+        <v>1.039976868429146</v>
       </c>
       <c r="F5">
-        <v>1.031494972746819</v>
+        <v>1.050343893968554</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044524627057632</v>
+        <v>1.032355911206709</v>
       </c>
       <c r="J5">
-        <v>1.025713708528217</v>
+        <v>1.035044585332057</v>
       </c>
       <c r="K5">
-        <v>1.035369763873437</v>
+        <v>1.040688014474715</v>
       </c>
       <c r="L5">
-        <v>1.031112546392094</v>
+        <v>1.042399259175252</v>
       </c>
       <c r="M5">
-        <v>1.041012124048576</v>
+        <v>1.052741120564155</v>
       </c>
       <c r="N5">
-        <v>1.012481516827844</v>
+        <v>1.015682394862004</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.007108453763142</v>
+        <v>1.030622914787837</v>
       </c>
       <c r="D6">
-        <v>1.025914233228684</v>
+        <v>1.038290045958315</v>
       </c>
       <c r="E6">
-        <v>1.02162624928755</v>
+        <v>1.040010673530576</v>
       </c>
       <c r="F6">
-        <v>1.031648293439545</v>
+        <v>1.050380610613689</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044555199381849</v>
+        <v>1.032360164266608</v>
       </c>
       <c r="J6">
-        <v>1.025806091592116</v>
+        <v>1.035066538157065</v>
       </c>
       <c r="K6">
-        <v>1.035456185738073</v>
+        <v>1.040707898398395</v>
       </c>
       <c r="L6">
-        <v>1.031215609260183</v>
+        <v>1.042424313295162</v>
       </c>
       <c r="M6">
-        <v>1.041127606505939</v>
+        <v>1.052769175275869</v>
       </c>
       <c r="N6">
-        <v>1.012512683041962</v>
+        <v>1.01568973609621</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.005921442334005</v>
+        <v>1.030358841513742</v>
       </c>
       <c r="D7">
-        <v>1.025057658288501</v>
+        <v>1.038093161073189</v>
       </c>
       <c r="E7">
-        <v>1.020652396700947</v>
+        <v>1.039778308027882</v>
       </c>
       <c r="F7">
-        <v>1.030591386411475</v>
+        <v>1.050128225951056</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044343494666112</v>
+        <v>1.032330820830343</v>
       </c>
       <c r="J7">
-        <v>1.025168844664106</v>
+        <v>1.034915595248237</v>
       </c>
       <c r="K7">
-        <v>1.034859877609494</v>
+        <v>1.040571154346497</v>
       </c>
       <c r="L7">
-        <v>1.030504874998802</v>
+        <v>1.042252066875143</v>
       </c>
       <c r="M7">
-        <v>1.04033122197168</v>
+        <v>1.052576298329482</v>
       </c>
       <c r="N7">
-        <v>1.012297684727199</v>
+        <v>1.015639255555646</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.000871351980892</v>
+        <v>1.02925661260829</v>
       </c>
       <c r="D8">
-        <v>1.021417814226186</v>
+        <v>1.037271166943697</v>
       </c>
       <c r="E8">
-        <v>1.01652110724846</v>
+        <v>1.038809183267124</v>
       </c>
       <c r="F8">
-        <v>1.026106239852587</v>
+        <v>1.049075454410499</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043421237302523</v>
+        <v>1.032205718586585</v>
       </c>
       <c r="J8">
-        <v>1.022454308329288</v>
+        <v>1.034284908662147</v>
       </c>
       <c r="K8">
-        <v>1.032315277157</v>
+        <v>1.039999137115286</v>
       </c>
       <c r="L8">
-        <v>1.027481844977018</v>
+        <v>1.041532873897974</v>
       </c>
       <c r="M8">
-        <v>1.03694382614861</v>
+        <v>1.051770927156425</v>
       </c>
       <c r="N8">
-        <v>1.01138141060305</v>
+        <v>1.015428237956143</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9916160508224111</v>
+        <v>1.027320318097807</v>
       </c>
       <c r="D9">
-        <v>1.014767439411851</v>
+        <v>1.035826426490617</v>
       </c>
       <c r="E9">
-        <v>1.008997964385941</v>
+        <v>1.037109601567647</v>
       </c>
       <c r="F9">
-        <v>1.017932847700039</v>
+        <v>1.047228599550636</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041651115018754</v>
+        <v>1.031976077546006</v>
       </c>
       <c r="J9">
-        <v>1.017468381761246</v>
+        <v>1.033174515480733</v>
       </c>
       <c r="K9">
-        <v>1.027625384110577</v>
+        <v>1.038989570591399</v>
       </c>
       <c r="L9">
-        <v>1.021946723469358</v>
+        <v>1.040268563925969</v>
       </c>
       <c r="M9">
-        <v>1.030741526046307</v>
+        <v>1.050354978072565</v>
       </c>
       <c r="N9">
-        <v>1.009696973270925</v>
+        <v>1.01505636617351</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9851836497787063</v>
+        <v>1.026033575071767</v>
       </c>
       <c r="D10">
-        <v>1.010162646822332</v>
+        <v>1.034865881489415</v>
       </c>
       <c r="E10">
-        <v>1.003804693151837</v>
+        <v>1.035982136896064</v>
       </c>
       <c r="F10">
-        <v>1.012286684435675</v>
+        <v>1.046003044544694</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040369381499346</v>
+        <v>1.031816843019978</v>
       </c>
       <c r="J10">
-        <v>1.013997701302998</v>
+        <v>1.032434977961999</v>
       </c>
       <c r="K10">
-        <v>1.024350804242472</v>
+        <v>1.03831553703536</v>
       </c>
       <c r="L10">
-        <v>1.018105590808783</v>
+        <v>1.039427799294434</v>
       </c>
       <c r="M10">
-        <v>1.026437586884447</v>
+        <v>1.049413280041281</v>
       </c>
       <c r="N10">
-        <v>1.008523605521096</v>
+        <v>1.014808460046273</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9823307790000168</v>
+        <v>1.025477400187863</v>
       </c>
       <c r="D11">
-        <v>1.008125221850536</v>
+        <v>1.034450599647613</v>
       </c>
       <c r="E11">
-        <v>1.001510386898876</v>
+        <v>1.035495282842366</v>
       </c>
       <c r="F11">
-        <v>1.009791331737748</v>
+        <v>1.045473739956051</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039789268413613</v>
+        <v>1.031746445054455</v>
       </c>
       <c r="J11">
-        <v>1.012457550898666</v>
+        <v>1.032114939049607</v>
       </c>
       <c r="K11">
-        <v>1.022895518050144</v>
+        <v>1.038023456607723</v>
       </c>
       <c r="L11">
-        <v>1.016403875635671</v>
+        <v>1.03906425847724</v>
       </c>
       <c r="M11">
-        <v>1.024530930345284</v>
+        <v>1.04900607446689</v>
       </c>
       <c r="N11">
-        <v>1.008002746924269</v>
+        <v>1.014701122242843</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9812604513174905</v>
+        <v>1.025270963070184</v>
       </c>
       <c r="D12">
-        <v>1.007361631872664</v>
+        <v>1.034296443691712</v>
       </c>
       <c r="E12">
-        <v>1.000651025171472</v>
+        <v>1.035314647747176</v>
       </c>
       <c r="F12">
-        <v>1.008856519402125</v>
+        <v>1.045277340484231</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039569924552175</v>
+        <v>1.031720079208974</v>
       </c>
       <c r="J12">
-        <v>1.011879635986728</v>
+        <v>1.031996091632822</v>
       </c>
       <c r="K12">
-        <v>1.022349140714482</v>
+        <v>1.037914933428064</v>
       </c>
       <c r="L12">
-        <v>1.015765763186162</v>
+        <v>1.038929302299093</v>
       </c>
       <c r="M12">
-        <v>1.023815986985657</v>
+        <v>1.048854905495431</v>
       </c>
       <c r="N12">
-        <v>1.007807281926485</v>
+        <v>1.014661253791433</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9814905300830636</v>
+        <v>1.025315237671428</v>
       </c>
       <c r="D13">
-        <v>1.007525736565457</v>
+        <v>1.034329506191473</v>
       </c>
       <c r="E13">
-        <v>1.000835690012687</v>
+        <v>1.035353385316436</v>
       </c>
       <c r="F13">
-        <v>1.009057404145216</v>
+        <v>1.045319459398523</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03961715092917</v>
+        <v>1.031725744576666</v>
       </c>
       <c r="J13">
-        <v>1.012003868508872</v>
+        <v>1.032021583459742</v>
       </c>
       <c r="K13">
-        <v>1.022466607252954</v>
+        <v>1.037938213420589</v>
       </c>
       <c r="L13">
-        <v>1.015902916852693</v>
+        <v>1.038958247254198</v>
       </c>
       <c r="M13">
-        <v>1.02396965351554</v>
+        <v>1.048887327863734</v>
       </c>
       <c r="N13">
-        <v>1.007849301349323</v>
+        <v>1.01466980562958</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9822425254490397</v>
+        <v>1.025460332940815</v>
       </c>
       <c r="D14">
-        <v>1.008062243535917</v>
+        <v>1.034437855053275</v>
       </c>
       <c r="E14">
-        <v>1.001439499559469</v>
+        <v>1.035480347312227</v>
       </c>
       <c r="F14">
-        <v>1.009714223579553</v>
+        <v>1.045457501262439</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039771216751038</v>
+        <v>1.031744270066256</v>
       </c>
       <c r="J14">
-        <v>1.012409900651914</v>
+        <v>1.032105114479656</v>
       </c>
       <c r="K14">
-        <v>1.022850474263336</v>
+        <v>1.038014486682036</v>
       </c>
       <c r="L14">
-        <v>1.016351253286969</v>
+        <v>1.039053101335403</v>
       </c>
       <c r="M14">
-        <v>1.024471971686289</v>
+        <v>1.048993577041891</v>
       </c>
       <c r="N14">
-        <v>1.007986630867979</v>
+        <v>1.01469782666888</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9827044290259406</v>
+        <v>1.025549750986423</v>
       </c>
       <c r="D15">
-        <v>1.008391894116201</v>
+        <v>1.034504625436169</v>
       </c>
       <c r="E15">
-        <v>1.001810569127101</v>
+        <v>1.035558599903929</v>
       </c>
       <c r="F15">
-        <v>1.010117850913554</v>
+        <v>1.045542581013766</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039865626958279</v>
+        <v>1.031755655510346</v>
       </c>
       <c r="J15">
-        <v>1.012659290321047</v>
+        <v>1.032156584619821</v>
       </c>
       <c r="K15">
-        <v>1.023086209978505</v>
+        <v>1.038061477024993</v>
       </c>
       <c r="L15">
-        <v>1.016626683138233</v>
+        <v>1.039111554589701</v>
       </c>
       <c r="M15">
-        <v>1.024780567102319</v>
+        <v>1.049059052025212</v>
       </c>
       <c r="N15">
-        <v>1.008070977471095</v>
+        <v>1.014715091581627</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9853715201373001</v>
+        <v>1.026070507645747</v>
       </c>
       <c r="D16">
-        <v>1.010296925117031</v>
+        <v>1.034893456041334</v>
       </c>
       <c r="E16">
-        <v>1.003955972562798</v>
+        <v>1.036014476318519</v>
       </c>
       <c r="F16">
-        <v>1.012451199952283</v>
+        <v>1.046038201771727</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040407344928071</v>
+        <v>1.031821484644925</v>
       </c>
       <c r="J16">
-        <v>1.014099110565188</v>
+        <v>1.032456221921483</v>
       </c>
       <c r="K16">
-        <v>1.024446582213747</v>
+        <v>1.038334916953001</v>
       </c>
       <c r="L16">
-        <v>1.018217697258933</v>
+        <v>1.039451937303089</v>
       </c>
       <c r="M16">
-        <v>1.02656319687774</v>
+        <v>1.049440316799225</v>
       </c>
       <c r="N16">
-        <v>1.008557897613849</v>
+        <v>1.014815583897585</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9870260818062355</v>
+        <v>1.026397431726149</v>
       </c>
       <c r="D17">
-        <v>1.011480069243201</v>
+        <v>1.035137532085121</v>
       </c>
       <c r="E17">
-        <v>1.005289312355476</v>
+        <v>1.036300797227034</v>
       </c>
       <c r="F17">
-        <v>1.013901089022205</v>
+        <v>1.046349459582927</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04074036400025</v>
+        <v>1.031862390243035</v>
       </c>
       <c r="J17">
-        <v>1.014992122994847</v>
+        <v>1.032644227182224</v>
       </c>
       <c r="K17">
-        <v>1.025289761462777</v>
+        <v>1.03850638087793</v>
       </c>
       <c r="L17">
-        <v>1.019205232029821</v>
+        <v>1.03966558959555</v>
       </c>
       <c r="M17">
-        <v>1.027669694190179</v>
+        <v>1.049679624212776</v>
       </c>
       <c r="N17">
-        <v>1.008859856214186</v>
+        <v>1.014878622355316</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9879846718015375</v>
+        <v>1.026588216735587</v>
       </c>
       <c r="D18">
-        <v>1.012165996579952</v>
+        <v>1.035279959176326</v>
       </c>
       <c r="E18">
-        <v>1.006062650037665</v>
+        <v>1.036467933063448</v>
       </c>
       <c r="F18">
-        <v>1.014741933324112</v>
+        <v>1.046531142923606</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0409321916685</v>
+        <v>1.03188610999356</v>
       </c>
       <c r="J18">
-        <v>1.015509416921591</v>
+        <v>1.032753905295905</v>
       </c>
       <c r="K18">
-        <v>1.02577798225251</v>
+        <v>1.03860637161242</v>
       </c>
       <c r="L18">
-        <v>1.019777548443479</v>
+        <v>1.039790259026454</v>
       </c>
       <c r="M18">
-        <v>1.028310962782019</v>
+        <v>1.049819261693186</v>
       </c>
       <c r="N18">
-        <v>1.009034755467648</v>
+        <v>1.014915392280424</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9883104401391919</v>
+        <v>1.026653285676506</v>
       </c>
       <c r="D19">
-        <v>1.012399178676243</v>
+        <v>1.035328533532665</v>
       </c>
       <c r="E19">
-        <v>1.006325604818775</v>
+        <v>1.036524944001523</v>
       </c>
       <c r="F19">
-        <v>1.015027826521492</v>
+        <v>1.046593114558446</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040997192703281</v>
+        <v>1.031894174083135</v>
       </c>
       <c r="J19">
-        <v>1.015685199373368</v>
+        <v>1.032791305679811</v>
       </c>
       <c r="K19">
-        <v>1.025943849787873</v>
+        <v>1.038640462216177</v>
       </c>
       <c r="L19">
-        <v>1.019972073689239</v>
+        <v>1.039832776456569</v>
       </c>
       <c r="M19">
-        <v>1.028528925583161</v>
+        <v>1.049866883487899</v>
       </c>
       <c r="N19">
-        <v>1.00909418548084</v>
+        <v>1.014927929971007</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9868492375050625</v>
+        <v>1.026362345952374</v>
       </c>
       <c r="D20">
-        <v>1.011353563340541</v>
+        <v>1.035111338642984</v>
       </c>
       <c r="E20">
-        <v>1.005146712489471</v>
+        <v>1.036270064273783</v>
       </c>
       <c r="F20">
-        <v>1.013746033828434</v>
+        <v>1.046316050904174</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040704884819174</v>
+        <v>1.031858015913905</v>
       </c>
       <c r="J20">
-        <v>1.014896683638969</v>
+        <v>1.032624054143213</v>
       </c>
       <c r="K20">
-        <v>1.02519966922736</v>
+        <v>1.038487986611188</v>
       </c>
       <c r="L20">
-        <v>1.019099662862799</v>
+        <v>1.039642661578289</v>
       </c>
       <c r="M20">
-        <v>1.027551406803845</v>
+        <v>1.049653943243852</v>
       </c>
       <c r="N20">
-        <v>1.00882758646611</v>
+        <v>1.014871858853535</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9820213794632459</v>
+        <v>1.025417601817952</v>
       </c>
       <c r="D21">
-        <v>1.007904445478338</v>
+        <v>1.03440594628698</v>
       </c>
       <c r="E21">
-        <v>1.001261892726594</v>
+        <v>1.035442954516418</v>
       </c>
       <c r="F21">
-        <v>1.009521028249123</v>
+        <v>1.045416845619857</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039725955629588</v>
+        <v>1.031738820753417</v>
       </c>
       <c r="J21">
-        <v>1.01229049725494</v>
+        <v>1.032080515856728</v>
       </c>
       <c r="K21">
-        <v>1.022737597337015</v>
+        <v>1.037992026965498</v>
       </c>
       <c r="L21">
-        <v>1.016219397536585</v>
+        <v>1.039025166977378</v>
       </c>
       <c r="M21">
-        <v>1.024324239363449</v>
+        <v>1.04896228693775</v>
       </c>
       <c r="N21">
-        <v>1.007946246436743</v>
+        <v>1.014689575123295</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.978924064856184</v>
+        <v>1.024824478184719</v>
       </c>
       <c r="D22">
-        <v>1.005696367768585</v>
+        <v>1.033963007312013</v>
       </c>
       <c r="E22">
-        <v>0.998777796620627</v>
+        <v>1.034924100089419</v>
       </c>
       <c r="F22">
-        <v>1.006818555062788</v>
+        <v>1.044852683021822</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03908805897281</v>
+        <v>1.031662623414306</v>
       </c>
       <c r="J22">
-        <v>1.010618005966832</v>
+        <v>1.031738941881559</v>
       </c>
       <c r="K22">
-        <v>1.021155816868782</v>
+        <v>1.037680015904177</v>
       </c>
       <c r="L22">
-        <v>1.014373504543144</v>
+        <v>1.03863738185403</v>
       </c>
       <c r="M22">
-        <v>1.022256134517752</v>
+        <v>1.048527909628801</v>
       </c>
       <c r="N22">
-        <v>1.007380530951793</v>
+        <v>1.014574975546193</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.980572043176834</v>
+        <v>1.025138820763799</v>
       </c>
       <c r="D23">
-        <v>1.006870744831831</v>
+        <v>1.034197763028115</v>
       </c>
       <c r="E23">
-        <v>1.000098708375337</v>
+        <v>1.035199041896148</v>
       </c>
       <c r="F23">
-        <v>1.008255668784415</v>
+        <v>1.045151641491625</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039428375555351</v>
+        <v>1.03170313575623</v>
       </c>
       <c r="J23">
-        <v>1.011507915776614</v>
+        <v>1.031920000121454</v>
       </c>
       <c r="K23">
-        <v>1.021997621748939</v>
+        <v>1.037845435590696</v>
       </c>
       <c r="L23">
-        <v>1.015355443924158</v>
+        <v>1.038842910124439</v>
       </c>
       <c r="M23">
-        <v>1.023356269642382</v>
+        <v>1.048758133791039</v>
       </c>
       <c r="N23">
-        <v>1.007681551266972</v>
+        <v>1.014635725885991</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9869291658468212</v>
+        <v>1.026378199407738</v>
       </c>
       <c r="D24">
-        <v>1.01141073881354</v>
+        <v>1.03512317414173</v>
       </c>
       <c r="E24">
-        <v>1.005211160735038</v>
+        <v>1.036283950772004</v>
       </c>
       <c r="F24">
-        <v>1.013816111564959</v>
+        <v>1.0463311464407</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040720923795786</v>
+        <v>1.031859992916971</v>
       </c>
       <c r="J24">
-        <v>1.014939819638665</v>
+        <v>1.032633169416301</v>
       </c>
       <c r="K24">
-        <v>1.025240389114559</v>
+        <v>1.03849629825447</v>
       </c>
       <c r="L24">
-        <v>1.019147376429766</v>
+        <v>1.039653021609116</v>
       </c>
       <c r="M24">
-        <v>1.027604868534402</v>
+        <v>1.049665547203165</v>
       </c>
       <c r="N24">
-        <v>1.008842171566106</v>
+        <v>1.014874914986887</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9940532518962055</v>
+        <v>1.027820178066316</v>
       </c>
       <c r="D25">
-        <v>1.016515965293354</v>
+        <v>1.036199473998851</v>
       </c>
       <c r="E25">
-        <v>1.010973132464274</v>
+        <v>1.037548007491301</v>
       </c>
       <c r="F25">
-        <v>1.020079429231597</v>
+        <v>1.0477050635992</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042126330643621</v>
+        <v>1.032036530615387</v>
       </c>
       <c r="J25">
-        <v>1.018782418692902</v>
+        <v>1.033461456951137</v>
       </c>
       <c r="K25">
-        <v>1.028863190352528</v>
+        <v>1.039250748378228</v>
       </c>
       <c r="L25">
-        <v>1.023403459821858</v>
+        <v>1.040595053398477</v>
       </c>
       <c r="M25">
-        <v>1.032373834076927</v>
+        <v>1.050720642745478</v>
       </c>
       <c r="N25">
-        <v>1.010141061491345</v>
+        <v>1.015152504642058</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_181/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_181/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028973255428667</v>
+        <v>0.9995478528823816</v>
       </c>
       <c r="D2">
-        <v>1.037059800123672</v>
+        <v>1.020465145580618</v>
       </c>
       <c r="E2">
-        <v>1.038560239073564</v>
+        <v>1.015441533518976</v>
       </c>
       <c r="F2">
-        <v>1.048804984141571</v>
+        <v>1.024933806564261</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032172886504102</v>
+        <v>1.043174115293842</v>
       </c>
       <c r="J2">
-        <v>1.034122606098828</v>
+        <v>1.021742096007614</v>
       </c>
       <c r="K2">
-        <v>1.039851764756822</v>
+        <v>1.031646545006919</v>
       </c>
       <c r="L2">
-        <v>1.041347924427985</v>
+        <v>1.026689854572865</v>
       </c>
       <c r="M2">
-        <v>1.051563806205685</v>
+        <v>1.036056368027747</v>
       </c>
       <c r="N2">
-        <v>1.015373910130145</v>
+        <v>1.011140904370007</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029812177506045</v>
+        <v>1.003436179500151</v>
       </c>
       <c r="D3">
-        <v>1.037685523650234</v>
+        <v>1.023265493569658</v>
       </c>
       <c r="E3">
-        <v>1.039297506843562</v>
+        <v>1.01861690693933</v>
       </c>
       <c r="F3">
-        <v>1.049605956652344</v>
+        <v>1.028381853148635</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032269299084244</v>
+        <v>1.043893862043252</v>
       </c>
       <c r="J3">
-        <v>1.034602929769353</v>
+        <v>1.023833607101517</v>
       </c>
       <c r="K3">
-        <v>1.04028770566879</v>
+        <v>1.033609096841011</v>
       </c>
       <c r="L3">
-        <v>1.041895422868453</v>
+        <v>1.029016996048068</v>
       </c>
       <c r="M3">
-        <v>1.05217692659084</v>
+        <v>1.038664018691487</v>
       </c>
       <c r="N3">
-        <v>1.015534661474798</v>
+        <v>1.011847066241466</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030355786119329</v>
+        <v>1.005907656948615</v>
       </c>
       <c r="D4">
-        <v>1.038090882950311</v>
+        <v>1.025047712678939</v>
       </c>
       <c r="E4">
-        <v>1.03977561991438</v>
+        <v>1.02064109319562</v>
       </c>
       <c r="F4">
-        <v>1.050125306162631</v>
+        <v>1.030579118068523</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032330479878947</v>
+        <v>1.044341024206937</v>
       </c>
       <c r="J4">
-        <v>1.034913848438617</v>
+        <v>1.025161442050023</v>
       </c>
       <c r="K4">
-        <v>1.040569571493908</v>
+        <v>1.03485294810442</v>
       </c>
       <c r="L4">
-        <v>1.042250073805092</v>
+        <v>1.030496621180279</v>
       </c>
       <c r="M4">
-        <v>1.05257406652184</v>
+        <v>1.040321973446568</v>
       </c>
       <c r="N4">
-        <v>1.015638671310203</v>
+        <v>1.012295186948342</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030584501767522</v>
+        <v>1.006936331562185</v>
       </c>
       <c r="D5">
-        <v>1.038261407625476</v>
+        <v>1.025790002356857</v>
       </c>
       <c r="E5">
-        <v>1.039976868429146</v>
+        <v>1.021484968852685</v>
       </c>
       <c r="F5">
-        <v>1.050343893968554</v>
+        <v>1.031494972746819</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032355911206709</v>
+        <v>1.044524627057632</v>
       </c>
       <c r="J5">
-        <v>1.035044585332057</v>
+        <v>1.025713708528217</v>
       </c>
       <c r="K5">
-        <v>1.040688014474715</v>
+        <v>1.035369763873437</v>
       </c>
       <c r="L5">
-        <v>1.042399259175252</v>
+        <v>1.031112546392094</v>
       </c>
       <c r="M5">
-        <v>1.052741120564155</v>
+        <v>1.041012124048576</v>
       </c>
       <c r="N5">
-        <v>1.015682394862004</v>
+        <v>1.012481516827844</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030622914787837</v>
+        <v>1.007108453763142</v>
       </c>
       <c r="D6">
-        <v>1.038290045958315</v>
+        <v>1.025914233228684</v>
       </c>
       <c r="E6">
-        <v>1.040010673530576</v>
+        <v>1.021626249287549</v>
       </c>
       <c r="F6">
-        <v>1.050380610613689</v>
+        <v>1.031648293439544</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032360164266608</v>
+        <v>1.044555199381849</v>
       </c>
       <c r="J6">
-        <v>1.035066538157065</v>
+        <v>1.025806091592116</v>
       </c>
       <c r="K6">
-        <v>1.040707898398395</v>
+        <v>1.035456185738073</v>
       </c>
       <c r="L6">
-        <v>1.042424313295162</v>
+        <v>1.031215609260183</v>
       </c>
       <c r="M6">
-        <v>1.052769175275869</v>
+        <v>1.041127606505939</v>
       </c>
       <c r="N6">
-        <v>1.01568973609621</v>
+        <v>1.012512683041962</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030358841513742</v>
+        <v>1.005921442334005</v>
       </c>
       <c r="D7">
-        <v>1.038093161073189</v>
+        <v>1.025057658288501</v>
       </c>
       <c r="E7">
-        <v>1.039778308027882</v>
+        <v>1.020652396700948</v>
       </c>
       <c r="F7">
-        <v>1.050128225951056</v>
+        <v>1.030591386411475</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032330820830343</v>
+        <v>1.044343494666112</v>
       </c>
       <c r="J7">
-        <v>1.034915595248237</v>
+        <v>1.025168844664106</v>
       </c>
       <c r="K7">
-        <v>1.040571154346497</v>
+        <v>1.034859877609494</v>
       </c>
       <c r="L7">
-        <v>1.042252066875143</v>
+        <v>1.030504874998802</v>
       </c>
       <c r="M7">
-        <v>1.052576298329482</v>
+        <v>1.04033122197168</v>
       </c>
       <c r="N7">
-        <v>1.015639255555646</v>
+        <v>1.012297684727199</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02925661260829</v>
+        <v>1.000871351980891</v>
       </c>
       <c r="D8">
-        <v>1.037271166943697</v>
+        <v>1.021417814226186</v>
       </c>
       <c r="E8">
-        <v>1.038809183267124</v>
+        <v>1.01652110724846</v>
       </c>
       <c r="F8">
-        <v>1.049075454410499</v>
+        <v>1.026106239852587</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032205718586585</v>
+        <v>1.043421237302523</v>
       </c>
       <c r="J8">
-        <v>1.034284908662147</v>
+        <v>1.022454308329288</v>
       </c>
       <c r="K8">
-        <v>1.039999137115286</v>
+        <v>1.032315277157</v>
       </c>
       <c r="L8">
-        <v>1.041532873897974</v>
+        <v>1.027481844977018</v>
       </c>
       <c r="M8">
-        <v>1.051770927156425</v>
+        <v>1.03694382614861</v>
       </c>
       <c r="N8">
-        <v>1.015428237956143</v>
+        <v>1.01138141060305</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027320318097807</v>
+        <v>0.991616050822411</v>
       </c>
       <c r="D9">
-        <v>1.035826426490617</v>
+        <v>1.014767439411851</v>
       </c>
       <c r="E9">
-        <v>1.037109601567647</v>
+        <v>1.008997964385941</v>
       </c>
       <c r="F9">
-        <v>1.047228599550636</v>
+        <v>1.017932847700039</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031976077546006</v>
+        <v>1.041651115018754</v>
       </c>
       <c r="J9">
-        <v>1.033174515480733</v>
+        <v>1.017468381761246</v>
       </c>
       <c r="K9">
-        <v>1.038989570591399</v>
+        <v>1.027625384110577</v>
       </c>
       <c r="L9">
-        <v>1.040268563925969</v>
+        <v>1.021946723469358</v>
       </c>
       <c r="M9">
-        <v>1.050354978072565</v>
+        <v>1.030741526046307</v>
       </c>
       <c r="N9">
-        <v>1.01505636617351</v>
+        <v>1.009696973270925</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026033575071767</v>
+        <v>0.9851836497787058</v>
       </c>
       <c r="D10">
-        <v>1.034865881489415</v>
+        <v>1.010162646822331</v>
       </c>
       <c r="E10">
-        <v>1.035982136896064</v>
+        <v>1.003804693151836</v>
       </c>
       <c r="F10">
-        <v>1.046003044544694</v>
+        <v>1.012286684435674</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031816843019978</v>
+        <v>1.040369381499345</v>
       </c>
       <c r="J10">
-        <v>1.032434977961999</v>
+        <v>1.013997701302998</v>
       </c>
       <c r="K10">
-        <v>1.03831553703536</v>
+        <v>1.024350804242471</v>
       </c>
       <c r="L10">
-        <v>1.039427799294434</v>
+        <v>1.018105590808782</v>
       </c>
       <c r="M10">
-        <v>1.049413280041281</v>
+        <v>1.026437586884447</v>
       </c>
       <c r="N10">
-        <v>1.014808460046273</v>
+        <v>1.008523605521096</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025477400187863</v>
+        <v>0.9823307790000155</v>
       </c>
       <c r="D11">
-        <v>1.034450599647613</v>
+        <v>1.008125221850535</v>
       </c>
       <c r="E11">
-        <v>1.035495282842366</v>
+        <v>1.001510386898875</v>
       </c>
       <c r="F11">
-        <v>1.045473739956051</v>
+        <v>1.009791331737747</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031746445054455</v>
+        <v>1.039789268413613</v>
       </c>
       <c r="J11">
-        <v>1.032114939049607</v>
+        <v>1.012457550898665</v>
       </c>
       <c r="K11">
-        <v>1.038023456607723</v>
+        <v>1.022895518050142</v>
       </c>
       <c r="L11">
-        <v>1.03906425847724</v>
+        <v>1.01640387563567</v>
       </c>
       <c r="M11">
-        <v>1.04900607446689</v>
+        <v>1.024530930345283</v>
       </c>
       <c r="N11">
-        <v>1.014701122242843</v>
+        <v>1.008002746924269</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025270963070184</v>
+        <v>0.9812604513174897</v>
       </c>
       <c r="D12">
-        <v>1.034296443691712</v>
+        <v>1.007361631872663</v>
       </c>
       <c r="E12">
-        <v>1.035314647747176</v>
+        <v>1.000651025171471</v>
       </c>
       <c r="F12">
-        <v>1.045277340484231</v>
+        <v>1.008856519402125</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031720079208974</v>
+        <v>1.039569924552175</v>
       </c>
       <c r="J12">
-        <v>1.031996091632822</v>
+        <v>1.011879635986727</v>
       </c>
       <c r="K12">
-        <v>1.037914933428064</v>
+        <v>1.022349140714481</v>
       </c>
       <c r="L12">
-        <v>1.038929302299093</v>
+        <v>1.015765763186161</v>
       </c>
       <c r="M12">
-        <v>1.048854905495431</v>
+        <v>1.023815986985656</v>
       </c>
       <c r="N12">
-        <v>1.014661253791433</v>
+        <v>1.007807281926484</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025315237671428</v>
+        <v>0.9814905300830647</v>
       </c>
       <c r="D13">
-        <v>1.034329506191473</v>
+        <v>1.007525736565458</v>
       </c>
       <c r="E13">
-        <v>1.035353385316436</v>
+        <v>1.000835690012688</v>
       </c>
       <c r="F13">
-        <v>1.045319459398523</v>
+        <v>1.009057404145216</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031725744576666</v>
+        <v>1.039617150929171</v>
       </c>
       <c r="J13">
-        <v>1.032021583459742</v>
+        <v>1.012003868508873</v>
       </c>
       <c r="K13">
-        <v>1.037938213420589</v>
+        <v>1.022466607252955</v>
       </c>
       <c r="L13">
-        <v>1.038958247254198</v>
+        <v>1.015902916852694</v>
       </c>
       <c r="M13">
-        <v>1.048887327863734</v>
+        <v>1.023969653515541</v>
       </c>
       <c r="N13">
-        <v>1.01466980562958</v>
+        <v>1.007849301349323</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025460332940815</v>
+        <v>0.9822425254490397</v>
       </c>
       <c r="D14">
-        <v>1.034437855053275</v>
+        <v>1.008062243535918</v>
       </c>
       <c r="E14">
-        <v>1.035480347312227</v>
+        <v>1.001439499559469</v>
       </c>
       <c r="F14">
-        <v>1.045457501262439</v>
+        <v>1.009714223579553</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031744270066256</v>
+        <v>1.039771216751038</v>
       </c>
       <c r="J14">
-        <v>1.032105114479656</v>
+        <v>1.012409900651914</v>
       </c>
       <c r="K14">
-        <v>1.038014486682036</v>
+        <v>1.022850474263336</v>
       </c>
       <c r="L14">
-        <v>1.039053101335403</v>
+        <v>1.016351253286969</v>
       </c>
       <c r="M14">
-        <v>1.048993577041891</v>
+        <v>1.024471971686289</v>
       </c>
       <c r="N14">
-        <v>1.01469782666888</v>
+        <v>1.007986630867979</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025549750986423</v>
+        <v>0.9827044290259396</v>
       </c>
       <c r="D15">
-        <v>1.034504625436169</v>
+        <v>1.008391894116201</v>
       </c>
       <c r="E15">
-        <v>1.035558599903929</v>
+        <v>1.001810569127101</v>
       </c>
       <c r="F15">
-        <v>1.045542581013766</v>
+        <v>1.010117850913554</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031755655510346</v>
+        <v>1.039865626958278</v>
       </c>
       <c r="J15">
-        <v>1.032156584619821</v>
+        <v>1.012659290321047</v>
       </c>
       <c r="K15">
-        <v>1.038061477024993</v>
+        <v>1.023086209978505</v>
       </c>
       <c r="L15">
-        <v>1.039111554589701</v>
+        <v>1.016626683138232</v>
       </c>
       <c r="M15">
-        <v>1.049059052025212</v>
+        <v>1.024780567102319</v>
       </c>
       <c r="N15">
-        <v>1.014715091581627</v>
+        <v>1.008070977471095</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026070507645747</v>
+        <v>0.9853715201373003</v>
       </c>
       <c r="D16">
-        <v>1.034893456041334</v>
+        <v>1.010296925117031</v>
       </c>
       <c r="E16">
-        <v>1.036014476318519</v>
+        <v>1.003955972562798</v>
       </c>
       <c r="F16">
-        <v>1.046038201771727</v>
+        <v>1.012451199952283</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031821484644925</v>
+        <v>1.040407344928071</v>
       </c>
       <c r="J16">
-        <v>1.032456221921483</v>
+        <v>1.014099110565188</v>
       </c>
       <c r="K16">
-        <v>1.038334916953001</v>
+        <v>1.024446582213747</v>
       </c>
       <c r="L16">
-        <v>1.039451937303089</v>
+        <v>1.018217697258933</v>
       </c>
       <c r="M16">
-        <v>1.049440316799225</v>
+        <v>1.02656319687774</v>
       </c>
       <c r="N16">
-        <v>1.014815583897585</v>
+        <v>1.008557897613849</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026397431726149</v>
+        <v>0.9870260818062361</v>
       </c>
       <c r="D17">
-        <v>1.035137532085121</v>
+        <v>1.011480069243202</v>
       </c>
       <c r="E17">
-        <v>1.036300797227034</v>
+        <v>1.005289312355476</v>
       </c>
       <c r="F17">
-        <v>1.046349459582927</v>
+        <v>1.013901089022205</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031862390243035</v>
+        <v>1.04074036400025</v>
       </c>
       <c r="J17">
-        <v>1.032644227182224</v>
+        <v>1.014992122994847</v>
       </c>
       <c r="K17">
-        <v>1.03850638087793</v>
+        <v>1.025289761462778</v>
       </c>
       <c r="L17">
-        <v>1.03966558959555</v>
+        <v>1.019205232029822</v>
       </c>
       <c r="M17">
-        <v>1.049679624212776</v>
+        <v>1.02766969419018</v>
       </c>
       <c r="N17">
-        <v>1.014878622355316</v>
+        <v>1.008859856214186</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026588216735587</v>
+        <v>0.9879846718015383</v>
       </c>
       <c r="D18">
-        <v>1.035279959176326</v>
+        <v>1.012165996579953</v>
       </c>
       <c r="E18">
-        <v>1.036467933063448</v>
+        <v>1.006062650037666</v>
       </c>
       <c r="F18">
-        <v>1.046531142923606</v>
+        <v>1.014741933324112</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03188610999356</v>
+        <v>1.0409321916685</v>
       </c>
       <c r="J18">
-        <v>1.032753905295905</v>
+        <v>1.015509416921591</v>
       </c>
       <c r="K18">
-        <v>1.03860637161242</v>
+        <v>1.025777982252511</v>
       </c>
       <c r="L18">
-        <v>1.039790259026454</v>
+        <v>1.019777548443479</v>
       </c>
       <c r="M18">
-        <v>1.049819261693186</v>
+        <v>1.02831096278202</v>
       </c>
       <c r="N18">
-        <v>1.014915392280424</v>
+        <v>1.009034755467648</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026653285676506</v>
+        <v>0.9883104401391922</v>
       </c>
       <c r="D19">
-        <v>1.035328533532665</v>
+        <v>1.012399178676243</v>
       </c>
       <c r="E19">
-        <v>1.036524944001523</v>
+        <v>1.006325604818775</v>
       </c>
       <c r="F19">
-        <v>1.046593114558446</v>
+        <v>1.015027826521492</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031894174083135</v>
+        <v>1.040997192703281</v>
       </c>
       <c r="J19">
-        <v>1.032791305679811</v>
+        <v>1.015685199373368</v>
       </c>
       <c r="K19">
-        <v>1.038640462216177</v>
+        <v>1.025943849787874</v>
       </c>
       <c r="L19">
-        <v>1.039832776456569</v>
+        <v>1.019972073689239</v>
       </c>
       <c r="M19">
-        <v>1.049866883487899</v>
+        <v>1.028528925583161</v>
       </c>
       <c r="N19">
-        <v>1.014927929971007</v>
+        <v>1.00909418548084</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026362345952374</v>
+        <v>0.9868492375050629</v>
       </c>
       <c r="D20">
-        <v>1.035111338642984</v>
+        <v>1.011353563340541</v>
       </c>
       <c r="E20">
-        <v>1.036270064273783</v>
+        <v>1.005146712489472</v>
       </c>
       <c r="F20">
-        <v>1.046316050904174</v>
+        <v>1.013746033828435</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031858015913905</v>
+        <v>1.040704884819174</v>
       </c>
       <c r="J20">
-        <v>1.032624054143213</v>
+        <v>1.014896683638969</v>
       </c>
       <c r="K20">
-        <v>1.038487986611188</v>
+        <v>1.025199669227361</v>
       </c>
       <c r="L20">
-        <v>1.039642661578289</v>
+        <v>1.019099662862799</v>
       </c>
       <c r="M20">
-        <v>1.049653943243852</v>
+        <v>1.027551406803846</v>
       </c>
       <c r="N20">
-        <v>1.014871858853535</v>
+        <v>1.00882758646611</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025417601817952</v>
+        <v>0.9820213794632457</v>
       </c>
       <c r="D21">
-        <v>1.03440594628698</v>
+        <v>1.007904445478338</v>
       </c>
       <c r="E21">
-        <v>1.035442954516418</v>
+        <v>1.001261892726594</v>
       </c>
       <c r="F21">
-        <v>1.045416845619857</v>
+        <v>1.009521028249123</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031738820753417</v>
+        <v>1.039725955629588</v>
       </c>
       <c r="J21">
-        <v>1.032080515856728</v>
+        <v>1.01229049725494</v>
       </c>
       <c r="K21">
-        <v>1.037992026965498</v>
+        <v>1.022737597337015</v>
       </c>
       <c r="L21">
-        <v>1.039025166977378</v>
+        <v>1.016219397536585</v>
       </c>
       <c r="M21">
-        <v>1.04896228693775</v>
+        <v>1.024324239363448</v>
       </c>
       <c r="N21">
-        <v>1.014689575123295</v>
+        <v>1.007946246436743</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024824478184719</v>
+        <v>0.9789240648561834</v>
       </c>
       <c r="D22">
-        <v>1.033963007312013</v>
+        <v>1.005696367768585</v>
       </c>
       <c r="E22">
-        <v>1.034924100089419</v>
+        <v>0.9987777966206269</v>
       </c>
       <c r="F22">
-        <v>1.044852683021822</v>
+        <v>1.006818555062787</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031662623414306</v>
+        <v>1.03908805897281</v>
       </c>
       <c r="J22">
-        <v>1.031738941881559</v>
+        <v>1.010618005966832</v>
       </c>
       <c r="K22">
-        <v>1.037680015904177</v>
+        <v>1.021155816868782</v>
       </c>
       <c r="L22">
-        <v>1.03863738185403</v>
+        <v>1.014373504543144</v>
       </c>
       <c r="M22">
-        <v>1.048527909628801</v>
+        <v>1.022256134517751</v>
       </c>
       <c r="N22">
-        <v>1.014574975546193</v>
+        <v>1.007380530951793</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025138820763799</v>
+        <v>0.9805720431768346</v>
       </c>
       <c r="D23">
-        <v>1.034197763028115</v>
+        <v>1.006870744831832</v>
       </c>
       <c r="E23">
-        <v>1.035199041896148</v>
+        <v>1.000098708375337</v>
       </c>
       <c r="F23">
-        <v>1.045151641491625</v>
+        <v>1.008255668784415</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03170313575623</v>
+        <v>1.039428375555351</v>
       </c>
       <c r="J23">
-        <v>1.031920000121454</v>
+        <v>1.011507915776614</v>
       </c>
       <c r="K23">
-        <v>1.037845435590696</v>
+        <v>1.02199762174894</v>
       </c>
       <c r="L23">
-        <v>1.038842910124439</v>
+        <v>1.015355443924158</v>
       </c>
       <c r="M23">
-        <v>1.048758133791039</v>
+        <v>1.023356269642383</v>
       </c>
       <c r="N23">
-        <v>1.014635725885991</v>
+        <v>1.007681551266972</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026378199407738</v>
+        <v>0.986929165846822</v>
       </c>
       <c r="D24">
-        <v>1.03512317414173</v>
+        <v>1.011410738813541</v>
       </c>
       <c r="E24">
-        <v>1.036283950772004</v>
+        <v>1.005211160735039</v>
       </c>
       <c r="F24">
-        <v>1.0463311464407</v>
+        <v>1.01381611156496</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031859992916971</v>
+        <v>1.040720923795787</v>
       </c>
       <c r="J24">
-        <v>1.032633169416301</v>
+        <v>1.014939819638665</v>
       </c>
       <c r="K24">
-        <v>1.03849629825447</v>
+        <v>1.02524038911456</v>
       </c>
       <c r="L24">
-        <v>1.039653021609116</v>
+        <v>1.019147376429766</v>
       </c>
       <c r="M24">
-        <v>1.049665547203165</v>
+        <v>1.027604868534403</v>
       </c>
       <c r="N24">
-        <v>1.014874914986887</v>
+        <v>1.008842171566106</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027820178066316</v>
+        <v>0.9940532518962059</v>
       </c>
       <c r="D25">
-        <v>1.036199473998851</v>
+        <v>1.016515965293354</v>
       </c>
       <c r="E25">
-        <v>1.037548007491301</v>
+        <v>1.010973132464274</v>
       </c>
       <c r="F25">
-        <v>1.0477050635992</v>
+        <v>1.020079429231597</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032036530615387</v>
+        <v>1.042126330643621</v>
       </c>
       <c r="J25">
-        <v>1.033461456951137</v>
+        <v>1.018782418692902</v>
       </c>
       <c r="K25">
-        <v>1.039250748378228</v>
+        <v>1.028863190352528</v>
       </c>
       <c r="L25">
-        <v>1.040595053398477</v>
+        <v>1.023403459821858</v>
       </c>
       <c r="M25">
-        <v>1.050720642745478</v>
+        <v>1.032373834076927</v>
       </c>
       <c r="N25">
-        <v>1.015152504642058</v>
+        <v>1.010141061491345</v>
       </c>
     </row>
   </sheetData>
